--- a/Thresholding/Results/HK_G_acc_LT.xlsx
+++ b/Thresholding/Results/HK_G_acc_LT.xlsx
@@ -13,7 +13,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -69,247 +84,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>74.692442882249566</v>
+        <v>84.81481481481481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>74.340949033391908</v>
+        <v>83.703703703703695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>76.801405975395426</v>
+        <v>85.18518518518519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>70.298769771528995</v>
+        <v>79.629629629629633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>73.286467486818978</v>
+        <v>81.481481481481481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>73.4622144112478</v>
+        <v>81.481481481481481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.843585237258353</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.370826010544818</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>80.140597539543052</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>81.195079086115996</v>
+        <v>88.518518518518519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>67.486818980667834</v>
+        <v>76.296296296296291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>73.110720562390156</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>76.977152899824247</v>
+        <v>88.518518518518519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>76.801405975395426</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>77.328646748681891</v>
+        <v>88.148148148148152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>64.850615114235495</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>68.014059753954299</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>71.880492091388405</v>
+        <v>84.074074074074076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>78.734622144112478</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>79.96485061511423</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>79.086115992970122</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>67.486818980667834</v>
+        <v>77.777777777777786</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>65.37785588752196</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>65.026362038664317</v>
+        <v>76.296296296296291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>75.395430579964852</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>72.583479789103691</v>
+        <v>84.444444444444443</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>73.989455184534265</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>73.286467486818978</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>69.947275922671352</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>73.4622144112478</v>
+        <v>83.703703703703695</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>76.625659050966604</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>76.977152899824247</v>
+        <v>82.962962962962962</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>77.328646748681891</v>
+        <v>82.222222222222214</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>69.77152899824253</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>70.474516695957817</v>
+        <v>80.370370370370367</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>63.620386643233736</v>
+        <v>78.518518518518519</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>71.880492091388405</v>
+        <v>80.370370370370367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>67.135325131810191</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>67.838312829525478</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.340949033391908</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>76.449912126537782</v>
+        <v>87.037037037037038</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>76.449912126537782</v>
+        <v>86.296296296296291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.922671353251317</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>76.098418277680139</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>76.098418277680139</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>69.244288224956065</v>
+        <v>78.888888888888886</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.541300527240779</v>
+        <v>79.629629629629633</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>73.813708260105443</v>
+        <v>84.074074074074076</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_LT.xlsx
+++ b/Thresholding/Results/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -84,247 +87,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>84.81481481481481</v>
+        <v>74.692442882249566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>83.703703703703695</v>
+        <v>74.340949033391908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>85.18518518518519</v>
+        <v>76.801405975395426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>79.629629629629633</v>
+        <v>70.298769771528995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>81.481481481481481</v>
+        <v>73.286467486818978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>81.481481481481481</v>
+        <v>73.4622144112478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>88.888888888888886</v>
+        <v>80.843585237258353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>88.888888888888886</v>
+        <v>81.370826010544818</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>88.888888888888886</v>
+        <v>80.140597539543052</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>88.518518518518519</v>
+        <v>81.195079086115996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>76.296296296296291</v>
+        <v>67.486818980667834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>83.333333333333343</v>
+        <v>73.110720562390156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>88.518518518518519</v>
+        <v>76.977152899824247</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>87.407407407407405</v>
+        <v>76.801405975395426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>88.148148148148152</v>
+        <v>77.328646748681891</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80</v>
+        <v>64.850615114235495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.851851851851848</v>
+        <v>68.014059753954299</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>84.074074074074076</v>
+        <v>71.880492091388405</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>85.925925925925924</v>
+        <v>78.734622144112478</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>87.407407407407405</v>
+        <v>79.96485061511423</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.407407407407405</v>
+        <v>79.086115992970122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>77.777777777777786</v>
+        <v>67.486818980667834</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>77.407407407407405</v>
+        <v>65.37785588752196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>76.296296296296291</v>
+        <v>65.026362038664317</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.407407407407405</v>
+        <v>75.395430579964852</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>84.444444444444443</v>
+        <v>72.583479789103691</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>85.555555555555557</v>
+        <v>73.989455184534265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>83.333333333333343</v>
+        <v>73.286467486818978</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.851851851851848</v>
+        <v>69.947275922671352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>83.703703703703695</v>
+        <v>73.4622144112478</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>81.851851851851848</v>
+        <v>76.625659050966604</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>82.962962962962962</v>
+        <v>76.977152899824247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>82.222222222222214</v>
+        <v>77.328646748681891</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>80</v>
+        <v>69.77152899824253</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>80.370370370370367</v>
+        <v>70.474516695957817</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>78.518518518518519</v>
+        <v>63.620386643233736</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>80.370370370370367</v>
+        <v>71.880492091388405</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>77.407407407407405</v>
+        <v>67.135325131810191</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>77.407407407407405</v>
+        <v>67.838312829525478</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>85.925925925925924</v>
+        <v>74.340949033391908</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>87.037037037037038</v>
+        <v>76.449912126537782</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>86.296296296296291</v>
+        <v>76.449912126537782</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>85.555555555555557</v>
+        <v>75.922671353251317</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>85.925925925925924</v>
+        <v>76.098418277680139</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.555555555555557</v>
+        <v>76.098418277680139</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>78.888888888888886</v>
+        <v>69.244288224956065</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>79.629629629629633</v>
+        <v>68.541300527240779</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>84.074074074074076</v>
+        <v>73.813708260105443</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_LT.xlsx
+++ b/Thresholding/Results/HK_G_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -87,7 +93,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/HK_G_acc_LT.xlsx
+++ b/Thresholding/Results/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -93,247 +96,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>74.692442882249566</v>
+        <v>84.81481481481481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>74.340949033391908</v>
+        <v>83.703703703703695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>76.801405975395426</v>
+        <v>85.18518518518519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>70.298769771528995</v>
+        <v>79.629629629629633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>73.286467486818978</v>
+        <v>81.481481481481481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>73.4622144112478</v>
+        <v>81.481481481481481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.843585237258353</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.370826010544818</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>80.140597539543052</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>81.195079086115996</v>
+        <v>88.518518518518519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>67.486818980667834</v>
+        <v>76.296296296296291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>73.110720562390156</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>76.977152899824247</v>
+        <v>88.518518518518519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>76.801405975395426</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>77.328646748681891</v>
+        <v>88.148148148148152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>64.850615114235495</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>68.014059753954299</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>71.880492091388405</v>
+        <v>84.074074074074076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>78.734622144112478</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>79.96485061511423</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>79.086115992970122</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>67.486818980667834</v>
+        <v>77.777777777777786</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>65.37785588752196</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>65.026362038664317</v>
+        <v>76.296296296296291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>75.395430579964852</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>72.583479789103691</v>
+        <v>84.444444444444443</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>73.989455184534265</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>73.286467486818978</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>69.947275922671352</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>73.4622144112478</v>
+        <v>83.703703703703695</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>76.625659050966604</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>76.977152899824247</v>
+        <v>82.962962962962962</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>77.328646748681891</v>
+        <v>82.222222222222214</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>69.77152899824253</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>70.474516695957817</v>
+        <v>80.370370370370367</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>63.620386643233736</v>
+        <v>78.518518518518519</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>71.880492091388405</v>
+        <v>80.370370370370367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>67.135325131810191</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>67.838312829525478</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.340949033391908</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>76.449912126537782</v>
+        <v>87.037037037037038</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>76.449912126537782</v>
+        <v>86.296296296296291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.922671353251317</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>76.098418277680139</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>76.098418277680139</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>69.244288224956065</v>
+        <v>78.888888888888886</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.541300527240779</v>
+        <v>79.629629629629633</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>73.813708260105443</v>
+        <v>84.074074074074076</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_LT.xlsx
+++ b/Thresholding/Results/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -96,7 +99,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/HK_G_acc_LT.xlsx
+++ b/Thresholding/Results/HK_G_acc_LT.xlsx
@@ -13,7 +13,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -99,247 +114,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>84.81481481481481</v>
+        <v>86.141304347826093</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>83.703703703703695</v>
+        <v>85.326086956521735</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>85.18518518518519</v>
+        <v>86.41304347826086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>79.629629629629633</v>
+        <v>78.804347826086953</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>81.481481481481481</v>
+        <v>79.891304347826093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>81.481481481481481</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>88.888888888888886</v>
+        <v>89.945652173913047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>88.888888888888886</v>
+        <v>88.858695652173907</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>88.888888888888886</v>
+        <v>88.58695652173914</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>88.518518518518519</v>
+        <v>88.858695652173907</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>76.296296296296291</v>
+        <v>73.91304347826086</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>83.333333333333343</v>
+        <v>80.706521739130437</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>88.518518518518519</v>
+        <v>87.228260869565219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>87.407407407407405</v>
+        <v>86.41304347826086</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>88.148148148148152</v>
+        <v>86.956521739130437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80</v>
+        <v>74.728260869565219</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.851851851851848</v>
+        <v>76.902173913043484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>84.074074074074076</v>
+        <v>79.619565217391312</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>85.925925925925924</v>
+        <v>87.228260869565219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>87.407407407407405</v>
+        <v>88.58695652173914</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.407407407407405</v>
+        <v>88.315217391304344</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>77.777777777777786</v>
+        <v>76.08695652173914</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>77.407407407407405</v>
+        <v>77.173913043478265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>76.296296296296291</v>
+        <v>75.815217391304344</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.407407407407405</v>
+        <v>86.141304347826093</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>84.444444444444443</v>
+        <v>83.967391304347828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>85.555555555555557</v>
+        <v>83.152173913043484</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>83.333333333333343</v>
+        <v>82.608695652173907</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.851851851851848</v>
+        <v>79.891304347826093</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>83.703703703703695</v>
+        <v>83.152173913043484</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>81.851851851851848</v>
+        <v>81.521739130434781</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>82.962962962962962</v>
+        <v>83.423913043478265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>82.222222222222214</v>
+        <v>82.065217391304344</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>80</v>
+        <v>80.706521739130437</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>80.370370370370367</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>78.518518518518519</v>
+        <v>73.91304347826086</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>80.370370370370367</v>
+        <v>81.521739130434781</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>77.407407407407405</v>
+        <v>79.076086956521735</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>77.407407407407405</v>
+        <v>79.076086956521735</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>85.925925925925924</v>
+        <v>83.967391304347828</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>87.037037037037038</v>
+        <v>86.41304347826086</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>86.296296296296291</v>
+        <v>84.782608695652172</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>85.555555555555557</v>
+        <v>85.054347826086953</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>85.925925925925924</v>
+        <v>86.141304347826093</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.555555555555557</v>
+        <v>85.869565217391312</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>78.888888888888886</v>
+        <v>79.076086956521735</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>79.629629629629633</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>84.074074074074076</v>
+        <v>82.608695652173907</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_LT.xlsx
+++ b/Thresholding/Results/HK_G_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -114,247 +120,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>86.141304347826093</v>
+        <v>75.246132208157519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>85.326086956521735</v>
+        <v>74.542897327707465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.41304347826086</v>
+        <v>77.215189873417728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>78.804347826086953</v>
+        <v>67.510548523206751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>79.891304347826093</v>
+        <v>70.745428973277072</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>81.25</v>
+        <v>71.589310829817151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>89.945652173913047</v>
+        <v>82.278481012658233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>88.858695652173907</v>
+        <v>82.278481012658233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>88.58695652173914</v>
+        <v>81.57524613220815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>88.858695652173907</v>
+        <v>82.137834036568208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>73.91304347826086</v>
+        <v>65.682137834036567</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>80.706521739130437</v>
+        <v>70.182841068917028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>87.228260869565219</v>
+        <v>76.933895921237692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>86.41304347826086</v>
+        <v>76.793248945147667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>86.956521739130437</v>
+        <v>77.637130801687761</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>74.728260869565219</v>
+        <v>60.900140646976084</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>76.902173913043484</v>
+        <v>65.119549929676509</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>79.619565217391312</v>
+        <v>67.791842475386773</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>87.228260869565219</v>
+        <v>79.043600562587898</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>88.58695652173914</v>
+        <v>80.450070323488049</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>88.315217391304344</v>
+        <v>79.324894514767934</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>76.08695652173914</v>
+        <v>64.697609001406477</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>77.173913043478265</v>
+        <v>63.009845288326304</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>75.815217391304344</v>
+        <v>61.74402250351617</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>86.141304347826093</v>
+        <v>75.386779184247544</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.967391304347828</v>
+        <v>72.292545710267234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>83.152173913043484</v>
+        <v>73.55836849507736</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.608695652173907</v>
+        <v>72.855133614627292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>79.891304347826093</v>
+        <v>69.338959212376935</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>83.152173913043484</v>
+        <v>72.433192686357245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>81.521739130434781</v>
+        <v>75.246132208157519</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>83.423913043478265</v>
+        <v>75.949367088607602</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>82.065217391304344</v>
+        <v>75.949367088607602</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>80.706521739130437</v>
+        <v>69.057665260196913</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>81.25</v>
+        <v>70.604781997187061</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>73.91304347826086</v>
+        <v>59.634317862165965</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>81.521739130434781</v>
+        <v>71.167369901547119</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>79.076086956521735</v>
+        <v>67.510548523206751</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>79.076086956521735</v>
+        <v>67.932489451476798</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>83.967391304347828</v>
+        <v>73.277074542897324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>86.41304347826086</v>
+        <v>77.355836849507725</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>84.782608695652172</v>
+        <v>75.808720112517577</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>85.054347826086953</v>
+        <v>75.386779184247544</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>86.141304347826093</v>
+        <v>77.49648382559775</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.869565217391312</v>
+        <v>76.65260196905767</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>79.076086956521735</v>
+        <v>67.36990154711674</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>75</v>
+        <v>64.838255977496488</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>82.608695652173907</v>
+        <v>72.714486638537267</v>
       </c>
     </row>
   </sheetData>
